--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T18:05:15+02:00</t>
+    <t>2024-03-03T08:59:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-lab-report</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-lab-report</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T08:59:15+02:00</t>
+    <t>2024-03-03T10:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -665,7 +665,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral-group)
+    <t xml:space="preserve">Reference(http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral-group)
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
     <t>lrc-panel-result</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-panel-lab-test-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-panel-lab-test-result</t>
   </si>
   <si>
     <t>LrcPanelResult</t>
@@ -1318,7 +1318,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral)
+    <t xml:space="preserve">Reference(http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral)
 </t>
   </si>
   <si>
@@ -1502,7 +1502,7 @@
     <t>Observation.code.coding:loinc-lab</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-onco-panel-result-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-onco-panel-result-codes</t>
   </si>
   <si>
     <t>Observation.code.coding:loinc-lab.id</t>
@@ -2290,7 +2290,7 @@
     <t>lrc-referral-group</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral-group</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral-group</t>
   </si>
   <si>
     <t>LrcReferralGroup</t>
@@ -3117,7 +3117,7 @@
     <t>lrc-referral</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-referral</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-referral</t>
   </si>
   <si>
     <t>LrcReferral</t>
@@ -3134,13 +3134,13 @@
 </t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-referral-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-referral-codes</t>
   </si>
   <si>
     <t>lrc-result</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/StructureDefinition/lrc-onco-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-onco-result</t>
   </si>
   <si>
     <t>LrcResult</t>
@@ -3194,7 +3194,7 @@
     <t>Observation.category.coding.userSelected</t>
   </si>
   <si>
-    <t>http://outburn.co.il/fhir/oncology/ValueSet/lrc-result-codes</t>
+    <t>http://ig.fhir-il-community.org/LRC/ValueSet/lrc-result-codes</t>
   </si>
   <si>
     <t>Observation.subject.id</t>

--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -63,13 +63,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-03T10:40:33+02:00</t>
+    <t>2024-03-04T15:01:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Outburn LTD.</t>
+    <t>FHIR-il community</t>
   </si>
   <si>
     <t>Contact</t>
@@ -879,7 +879,7 @@
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://hl7.org/fhir/ValueSet/observation-codes"/&gt;
+  &lt;system value="http://loinc.org"/&gt;
   &lt;code value="11502-2"/&gt;
 &lt;/valueCoding&gt;</t>
   </si>
@@ -1212,7 +1212,7 @@
     <t>lrc-panel-result</t>
   </si>
   <si>
-    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-panel-lab-test-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-panel-result</t>
   </si>
   <si>
     <t>LrcPanelResult</t>
@@ -3140,7 +3140,7 @@
     <t>lrc-result</t>
   </si>
   <si>
-    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-onco-result</t>
+    <t>http://ig.fhir-il-community.org/LRC/StructureDefinition/lrc-result</t>
   </si>
   <si>
     <t>LrcResult</t>
